--- a/업종분석_264_2020-2024.xlsx
+++ b/업종분석_264_2020-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2077,57 +2077,27 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>66236039583771</v>
-      </c>
-      <c r="G22" t="n">
-        <v>39574249299813.1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>26747896915829.58</v>
-      </c>
-      <c r="I22" t="n">
-        <v>23229498785101.64</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1474593672303.841</v>
-      </c>
-      <c r="K22" t="n">
-        <v>21754905112797.8</v>
-      </c>
-      <c r="L22" t="n">
-        <v>297615111341.355</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>10.1136</v>
-      </c>
-      <c r="O22" t="n">
-        <v>10.4225</v>
-      </c>
-      <c r="P22" t="n">
-        <v>-49.1617</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>6.3479</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.2812</v>
-      </c>
-      <c r="S22" t="n">
-        <v>93.6521</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.4493</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.1127</v>
-      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2150,57 +2120,27 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>68135514367282.33</v>
-      </c>
-      <c r="G23" t="n">
-        <v>40618491614755.73</v>
-      </c>
-      <c r="H23" t="n">
-        <v>27607397956494.84</v>
-      </c>
-      <c r="I23" t="n">
-        <v>23888436999944.89</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1320813833906.978</v>
-      </c>
-      <c r="K23" t="n">
-        <v>22567623166037.91</v>
-      </c>
-      <c r="L23" t="n">
-        <v>320011930230.7641</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>10.1136</v>
-      </c>
-      <c r="O23" t="n">
-        <v>10.4225</v>
-      </c>
-      <c r="P23" t="n">
-        <v>-49.1617</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5.5291</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.3396</v>
-      </c>
-      <c r="S23" t="n">
-        <v>94.4709</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.4697</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.1592</v>
-      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2223,57 +2163,27 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
-        <v>69426418679706.27</v>
-      </c>
-      <c r="G24" t="n">
-        <v>42786677603394.33</v>
-      </c>
-      <c r="H24" t="n">
-        <v>26704065822788.54</v>
-      </c>
-      <c r="I24" t="n">
-        <v>24419188725426.13</v>
-      </c>
-      <c r="J24" t="n">
-        <v>830244389429.0314</v>
-      </c>
-      <c r="K24" t="n">
-        <v>23588944335997.1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>45873443551.6272</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>10.1136</v>
-      </c>
-      <c r="O24" t="n">
-        <v>10.4225</v>
-      </c>
-      <c r="P24" t="n">
-        <v>-49.1617</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.1879</v>
-      </c>
-      <c r="S24" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.06610000000000001</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.1718</v>
-      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2296,67 +2206,37 @@
           <t>예측</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
-        <v>70837864686980.34</v>
-      </c>
-      <c r="G25" t="n">
-        <v>43339255747963.95</v>
-      </c>
-      <c r="H25" t="n">
-        <v>27570539420257.02</v>
-      </c>
-      <c r="I25" t="n">
-        <v>96600617359672.98</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3776089246183.863</v>
-      </c>
-      <c r="K25" t="n">
-        <v>92824528113489.12</v>
-      </c>
-      <c r="L25" t="n">
-        <v>300639990977.9907</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>10.1136</v>
-      </c>
-      <c r="O25" t="n">
-        <v>10.4225</v>
-      </c>
-      <c r="P25" t="n">
-        <v>-49.1617</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3.909</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.3112</v>
-      </c>
-      <c r="S25" t="n">
-        <v>96.09099999999999</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.4244</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.0904</v>
-      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2366,70 +2246,68 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>예측</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
       <c r="F26" t="n">
-        <v>71492442371331.08</v>
+        <v>357457535000000</v>
       </c>
       <c r="G26" t="n">
-        <v>42434600772758.21</v>
+        <v>91069812000000</v>
       </c>
       <c r="H26" t="n">
-        <v>29250506683210.22</v>
+        <v>266387723000000</v>
       </c>
       <c r="I26" t="n">
-        <v>25578826238489.62</v>
+        <v>55325178000000</v>
       </c>
       <c r="J26" t="n">
-        <v>1628282602433.654</v>
+        <v>6447345000000</v>
       </c>
       <c r="K26" t="n">
-        <v>23950543636055.96</v>
+        <v>48877833000000</v>
       </c>
       <c r="L26" t="n">
-        <v>151302502496.0535</v>
+        <v>4884926000000</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
           <t>흑자</t>
         </is>
       </c>
-      <c r="N26" t="n">
-        <v>10.1136</v>
-      </c>
-      <c r="O26" t="n">
-        <v>10.4225</v>
-      </c>
-      <c r="P26" t="n">
-        <v>-49.1617</v>
-      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="n">
-        <v>6.3657</v>
+        <v>11.6535</v>
       </c>
       <c r="R26" t="n">
-        <v>0.5915</v>
+        <v>8.829499999999999</v>
       </c>
       <c r="S26" t="n">
-        <v>93.6343</v>
+        <v>88.34650000000001</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2116</v>
+        <v>1.3666</v>
       </c>
       <c r="U26" t="n">
-        <v>0.5173</v>
+        <v>1.8338</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2439,70 +2317,68 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>예측</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
       <c r="F27" t="n">
-        <v>73542656912377.59</v>
+        <v>357959499000000</v>
       </c>
       <c r="G27" t="n">
-        <v>43554318936175.67</v>
+        <v>88151682000000</v>
       </c>
       <c r="H27" t="n">
-        <v>30190425100471.91</v>
+        <v>269807817000000</v>
       </c>
       <c r="I27" t="n">
-        <v>26304406512747.88</v>
+        <v>52966142000000</v>
       </c>
       <c r="J27" t="n">
-        <v>1458475122468.368</v>
+        <v>8146292000000</v>
       </c>
       <c r="K27" t="n">
-        <v>24845931390279.51</v>
+        <v>44819850000000</v>
       </c>
       <c r="L27" t="n">
-        <v>162688667434.5393</v>
+        <v>5555083000000</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>흑자</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>10.1136</v>
-      </c>
-      <c r="O27" t="n">
-        <v>10.4225</v>
-      </c>
-      <c r="P27" t="n">
-        <v>-49.1617</v>
-      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="n">
-        <v>5.5446</v>
+        <v>15.3802</v>
       </c>
       <c r="R27" t="n">
-        <v>0.6185</v>
+        <v>10.488</v>
       </c>
       <c r="S27" t="n">
-        <v>94.4554</v>
+        <v>84.6198</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2212</v>
+        <v>1.5519</v>
       </c>
       <c r="U27" t="n">
-        <v>0.5389</v>
+        <v>2.0589</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2512,70 +2388,68 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>예측</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
       <c r="F28" t="n">
-        <v>74936005650358.06</v>
+        <v>375788742000000</v>
       </c>
       <c r="G28" t="n">
-        <v>45879217284390.23</v>
+        <v>99652554000000</v>
       </c>
       <c r="H28" t="n">
-        <v>29202574627693.34</v>
+        <v>276136188000000</v>
       </c>
       <c r="I28" t="n">
-        <v>26888836090305.96</v>
+        <v>66964160000000</v>
       </c>
       <c r="J28" t="n">
-        <v>916776275706.7419</v>
+        <v>12353238000000</v>
       </c>
       <c r="K28" t="n">
-        <v>25972059814599.22</v>
+        <v>54610922000000</v>
       </c>
       <c r="L28" t="n">
-        <v>23321284917.9281</v>
+        <v>9360693000000</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>흑자</t>
         </is>
       </c>
-      <c r="N28" t="n">
-        <v>10.1136</v>
-      </c>
-      <c r="O28" t="n">
-        <v>10.4225</v>
-      </c>
-      <c r="P28" t="n">
-        <v>-49.1617</v>
-      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="n">
-        <v>3.4095</v>
+        <v>18.4475</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0867</v>
+        <v>13.9787</v>
       </c>
       <c r="S28" t="n">
-        <v>96.59050000000001</v>
+        <v>81.55249999999999</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0311</v>
+        <v>2.4909</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0799</v>
+        <v>3.3899</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LG전자</t>
+          <t>삼성전자</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2585,59 +2459,57 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>예측</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>실적</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
       <c r="F29" t="n">
-        <v>76459462109551.48</v>
+        <v>378235718000000</v>
       </c>
       <c r="G29" t="n">
-        <v>46471734726298.45</v>
+        <v>102287702000000</v>
       </c>
       <c r="H29" t="n">
-        <v>30150117974122.86</v>
+        <v>275948016000000</v>
       </c>
       <c r="I29" t="n">
-        <v>106370371088619.5</v>
+        <v>236806988000000</v>
       </c>
       <c r="J29" t="n">
-        <v>4169650623274.263</v>
+        <v>35993876000000</v>
       </c>
       <c r="K29" t="n">
-        <v>102200720465345.3</v>
+        <v>200813112000000</v>
       </c>
       <c r="L29" t="n">
-        <v>152840300280.2776</v>
+        <v>26407832000000</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
           <t>흑자</t>
         </is>
       </c>
-      <c r="N29" t="n">
-        <v>10.1136</v>
-      </c>
-      <c r="O29" t="n">
-        <v>10.4225</v>
-      </c>
-      <c r="P29" t="n">
-        <v>-49.1617</v>
-      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="n">
-        <v>3.9199</v>
+        <v>15.1997</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1437</v>
+        <v>11.1516</v>
       </c>
       <c r="S29" t="n">
-        <v>96.0801</v>
+        <v>84.80029999999999</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1999</v>
+        <v>6.9818</v>
       </c>
       <c r="U29" t="n">
-        <v>0.5069</v>
+        <v>9.569900000000001</v>
       </c>
     </row>
     <row r="30">
@@ -2648,7 +2520,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2667,48 +2539,54 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>357457535000000</v>
+        <v>392826274000000</v>
       </c>
       <c r="G30" t="n">
-        <v>91069812000000</v>
+        <v>118557683000000</v>
       </c>
       <c r="H30" t="n">
-        <v>266387723000000</v>
+        <v>274268591000000</v>
       </c>
       <c r="I30" t="n">
-        <v>55325178000000</v>
+        <v>65388503000000</v>
       </c>
       <c r="J30" t="n">
-        <v>6447345000000</v>
+        <v>9382868000000</v>
       </c>
       <c r="K30" t="n">
-        <v>48877833000000</v>
+        <v>56005635000000</v>
       </c>
       <c r="L30" t="n">
-        <v>4884926000000</v>
+        <v>7141685000000</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
           <t>흑자</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>18.1894</v>
+      </c>
+      <c r="O30" t="n">
+        <v>45.5307</v>
+      </c>
+      <c r="P30" t="n">
+        <v>46.1984</v>
+      </c>
       <c r="Q30" t="n">
-        <v>11.6535</v>
+        <v>14.3494</v>
       </c>
       <c r="R30" t="n">
-        <v>8.829499999999999</v>
+        <v>10.9219</v>
       </c>
       <c r="S30" t="n">
-        <v>88.34650000000001</v>
+        <v>85.6506</v>
       </c>
       <c r="T30" t="n">
-        <v>1.3666</v>
+        <v>1.818</v>
       </c>
       <c r="U30" t="n">
-        <v>1.8338</v>
+        <v>2.6039</v>
       </c>
     </row>
     <row r="31">
@@ -2719,7 +2597,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2738,48 +2616,54 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>357959499000000</v>
+        <v>384777669000000</v>
       </c>
       <c r="G31" t="n">
-        <v>88151682000000</v>
+        <v>102453403000000</v>
       </c>
       <c r="H31" t="n">
-        <v>269807817000000</v>
+        <v>282324266000000</v>
       </c>
       <c r="I31" t="n">
-        <v>52966142000000</v>
+        <v>63671585000000</v>
       </c>
       <c r="J31" t="n">
-        <v>8146292000000</v>
+        <v>12566745000000</v>
       </c>
       <c r="K31" t="n">
-        <v>44819850000000</v>
+        <v>51104840000000</v>
       </c>
       <c r="L31" t="n">
-        <v>5555083000000</v>
+        <v>9634486000000</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
           <t>흑자</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>20.2119</v>
+      </c>
+      <c r="O31" t="n">
+        <v>54.2634</v>
+      </c>
+      <c r="P31" t="n">
+        <v>73.4355</v>
+      </c>
       <c r="Q31" t="n">
-        <v>15.3802</v>
+        <v>19.7368</v>
       </c>
       <c r="R31" t="n">
-        <v>10.488</v>
+        <v>15.1315</v>
       </c>
       <c r="S31" t="n">
-        <v>84.6198</v>
+        <v>80.2632</v>
       </c>
       <c r="T31" t="n">
-        <v>1.5519</v>
+        <v>2.5039</v>
       </c>
       <c r="U31" t="n">
-        <v>2.0589</v>
+        <v>3.4126</v>
       </c>
     </row>
     <row r="32">
@@ -2790,7 +2674,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2809,48 +2693,54 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>375788742000000</v>
+        <v>410420718000000</v>
       </c>
       <c r="G32" t="n">
-        <v>99652554000000</v>
+        <v>113654600000000</v>
       </c>
       <c r="H32" t="n">
-        <v>276136188000000</v>
+        <v>296766118000000</v>
       </c>
       <c r="I32" t="n">
-        <v>66964160000000</v>
+        <v>73979187000000</v>
       </c>
       <c r="J32" t="n">
-        <v>12353238000000</v>
+        <v>15817531000000</v>
       </c>
       <c r="K32" t="n">
-        <v>54610922000000</v>
+        <v>58161656000000</v>
       </c>
       <c r="L32" t="n">
-        <v>9360693000000</v>
+        <v>12293331000000</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
           <t>흑자</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="N32" t="n">
+        <v>10.4758</v>
+      </c>
+      <c r="O32" t="n">
+        <v>28.0436</v>
+      </c>
+      <c r="P32" t="n">
+        <v>31.3293</v>
+      </c>
       <c r="Q32" t="n">
-        <v>18.4475</v>
+        <v>21.3811</v>
       </c>
       <c r="R32" t="n">
-        <v>13.9787</v>
+        <v>16.6173</v>
       </c>
       <c r="S32" t="n">
-        <v>81.55249999999999</v>
+        <v>78.6189</v>
       </c>
       <c r="T32" t="n">
-        <v>2.4909</v>
+        <v>2.9953</v>
       </c>
       <c r="U32" t="n">
-        <v>3.3899</v>
+        <v>4.1424</v>
       </c>
     </row>
     <row r="33">
@@ -2861,7 +2751,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2880,48 +2770,54 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>378235718000000</v>
+        <v>426621158000000</v>
       </c>
       <c r="G33" t="n">
-        <v>102287702000000</v>
+        <v>121721227000000</v>
       </c>
       <c r="H33" t="n">
-        <v>275948016000000</v>
+        <v>304899931000000</v>
       </c>
       <c r="I33" t="n">
-        <v>236806988000000</v>
+        <v>279604799000000</v>
       </c>
       <c r="J33" t="n">
-        <v>35993876000000</v>
+        <v>51633856000000</v>
       </c>
       <c r="K33" t="n">
-        <v>200813112000000</v>
+        <v>227970943000000</v>
       </c>
       <c r="L33" t="n">
-        <v>26407832000000</v>
+        <v>39907450000000</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
           <t>흑자</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="N33" t="n">
+        <v>18.0729</v>
+      </c>
+      <c r="O33" t="n">
+        <v>43.4518</v>
+      </c>
+      <c r="P33" t="n">
+        <v>51.1198</v>
+      </c>
       <c r="Q33" t="n">
-        <v>15.1997</v>
+        <v>18.4667</v>
       </c>
       <c r="R33" t="n">
-        <v>11.1516</v>
+        <v>14.2728</v>
       </c>
       <c r="S33" t="n">
-        <v>84.80029999999999</v>
+        <v>81.5333</v>
       </c>
       <c r="T33" t="n">
-        <v>6.9818</v>
+        <v>9.3543</v>
       </c>
       <c r="U33" t="n">
-        <v>9.569900000000001</v>
+        <v>13.0887</v>
       </c>
     </row>
     <row r="34">
@@ -2932,7 +2828,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2951,25 +2847,25 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>392826274000000</v>
+        <v>439326959000000</v>
       </c>
       <c r="G34" t="n">
-        <v>118557683000000</v>
+        <v>124036040000000</v>
       </c>
       <c r="H34" t="n">
-        <v>274268591000000</v>
+        <v>315290919000000</v>
       </c>
       <c r="I34" t="n">
-        <v>65388503000000</v>
+        <v>77781498000000</v>
       </c>
       <c r="J34" t="n">
-        <v>9382868000000</v>
+        <v>14121409000000</v>
       </c>
       <c r="K34" t="n">
-        <v>56005635000000</v>
+        <v>63660089000000</v>
       </c>
       <c r="L34" t="n">
-        <v>7141685000000</v>
+        <v>11324628000000</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2977,28 +2873,28 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>18.1894</v>
+        <v>18.9529</v>
       </c>
       <c r="O34" t="n">
-        <v>45.5307</v>
+        <v>50.5021</v>
       </c>
       <c r="P34" t="n">
-        <v>46.1984</v>
+        <v>58.5708</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.3494</v>
+        <v>18.1552</v>
       </c>
       <c r="R34" t="n">
-        <v>10.9219</v>
+        <v>14.5595</v>
       </c>
       <c r="S34" t="n">
-        <v>85.6506</v>
+        <v>81.84480000000001</v>
       </c>
       <c r="T34" t="n">
-        <v>1.818</v>
+        <v>2.5777</v>
       </c>
       <c r="U34" t="n">
-        <v>2.6039</v>
+        <v>3.5918</v>
       </c>
     </row>
     <row r="35">
@@ -3009,7 +2905,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3028,25 +2924,25 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>384777669000000</v>
+        <v>448040650000000</v>
       </c>
       <c r="G35" t="n">
-        <v>102453403000000</v>
+        <v>120133986000000</v>
       </c>
       <c r="H35" t="n">
-        <v>282324266000000</v>
+        <v>327906664000000</v>
       </c>
       <c r="I35" t="n">
-        <v>63671585000000</v>
+        <v>77203607000000</v>
       </c>
       <c r="J35" t="n">
-        <v>12566745000000</v>
+        <v>14097045000000</v>
       </c>
       <c r="K35" t="n">
-        <v>51104840000000</v>
+        <v>63106562000000</v>
       </c>
       <c r="L35" t="n">
-        <v>9634486000000</v>
+        <v>11098805000000</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3054,28 +2950,28 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>20.2119</v>
+        <v>21.2528</v>
       </c>
       <c r="O35" t="n">
-        <v>54.2634</v>
+        <v>12.1774</v>
       </c>
       <c r="P35" t="n">
-        <v>73.4355</v>
+        <v>15.1987</v>
       </c>
       <c r="Q35" t="n">
-        <v>19.7368</v>
+        <v>18.2596</v>
       </c>
       <c r="R35" t="n">
-        <v>15.1315</v>
+        <v>14.376</v>
       </c>
       <c r="S35" t="n">
-        <v>80.2632</v>
+        <v>81.74039999999999</v>
       </c>
       <c r="T35" t="n">
-        <v>2.5039</v>
+        <v>2.4772</v>
       </c>
       <c r="U35" t="n">
-        <v>3.4126</v>
+        <v>3.3847</v>
       </c>
     </row>
     <row r="36">
@@ -3086,7 +2982,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3105,25 +3001,25 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>410420718000000</v>
+        <v>470278409000000</v>
       </c>
       <c r="G36" t="n">
-        <v>113654600000000</v>
+        <v>125371520000000</v>
       </c>
       <c r="H36" t="n">
-        <v>296766118000000</v>
+        <v>344906889000000</v>
       </c>
       <c r="I36" t="n">
-        <v>73979187000000</v>
+        <v>76781680000000</v>
       </c>
       <c r="J36" t="n">
-        <v>15817531000000</v>
+        <v>10852045000000</v>
       </c>
       <c r="K36" t="n">
-        <v>58161656000000</v>
+        <v>65929635000000</v>
       </c>
       <c r="L36" t="n">
-        <v>12293331000000</v>
+        <v>9389198000000</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3131,28 +3027,28 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>10.4758</v>
+        <v>3.7882</v>
       </c>
       <c r="O36" t="n">
-        <v>28.0436</v>
+        <v>-31.3923</v>
       </c>
       <c r="P36" t="n">
-        <v>31.3293</v>
+        <v>-23.6236</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.3811</v>
+        <v>14.1336</v>
       </c>
       <c r="R36" t="n">
-        <v>16.6173</v>
+        <v>12.2284</v>
       </c>
       <c r="S36" t="n">
-        <v>78.6189</v>
+        <v>85.8664</v>
       </c>
       <c r="T36" t="n">
-        <v>2.9953</v>
+        <v>1.9965</v>
       </c>
       <c r="U36" t="n">
-        <v>4.1424</v>
+        <v>2.7222</v>
       </c>
     </row>
     <row r="37">
@@ -3163,7 +3059,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3182,25 +3078,25 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>426621158000000</v>
+        <v>448424507000000</v>
       </c>
       <c r="G37" t="n">
-        <v>121721227000000</v>
+        <v>93674903000000</v>
       </c>
       <c r="H37" t="n">
-        <v>304899931000000</v>
+        <v>354749604000000</v>
       </c>
       <c r="I37" t="n">
-        <v>279604799000000</v>
+        <v>302231360000000</v>
       </c>
       <c r="J37" t="n">
-        <v>51633856000000</v>
+        <v>43376630000000</v>
       </c>
       <c r="K37" t="n">
-        <v>227970943000000</v>
+        <v>258854730000000</v>
       </c>
       <c r="L37" t="n">
-        <v>39907450000000</v>
+        <v>55654077000000</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3208,28 +3104,28 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>18.0729</v>
+        <v>8.0923</v>
       </c>
       <c r="O37" t="n">
-        <v>43.4518</v>
+        <v>-15.9919</v>
       </c>
       <c r="P37" t="n">
-        <v>51.1198</v>
+        <v>39.4579</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.4667</v>
+        <v>14.3521</v>
       </c>
       <c r="R37" t="n">
-        <v>14.2728</v>
+        <v>18.4144</v>
       </c>
       <c r="S37" t="n">
-        <v>81.5333</v>
+        <v>85.64790000000001</v>
       </c>
       <c r="T37" t="n">
-        <v>9.3543</v>
+        <v>12.411</v>
       </c>
       <c r="U37" t="n">
-        <v>13.0887</v>
+        <v>15.6883</v>
       </c>
     </row>
     <row r="38">
@@ -3240,7 +3136,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3259,25 +3155,25 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>439326959000000</v>
+        <v>454091777000000</v>
       </c>
       <c r="G38" t="n">
-        <v>124036040000000</v>
+        <v>94292361000000</v>
       </c>
       <c r="H38" t="n">
-        <v>315290919000000</v>
+        <v>359799416000000</v>
       </c>
       <c r="I38" t="n">
-        <v>77781498000000</v>
+        <v>63745371000000</v>
       </c>
       <c r="J38" t="n">
-        <v>14121409000000</v>
+        <v>640178000000</v>
       </c>
       <c r="K38" t="n">
-        <v>63660089000000</v>
+        <v>63105193000000</v>
       </c>
       <c r="L38" t="n">
-        <v>11324628000000</v>
+        <v>1574600000000</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3285,28 +3181,28 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>18.9529</v>
+        <v>-18.0456</v>
       </c>
       <c r="O38" t="n">
-        <v>50.5021</v>
+        <v>-95.4666</v>
       </c>
       <c r="P38" t="n">
-        <v>58.5708</v>
+        <v>-86.0958</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.1552</v>
+        <v>1.0043</v>
       </c>
       <c r="R38" t="n">
-        <v>14.5595</v>
+        <v>2.4701</v>
       </c>
       <c r="S38" t="n">
-        <v>81.84480000000001</v>
+        <v>98.9957</v>
       </c>
       <c r="T38" t="n">
-        <v>2.5777</v>
+        <v>0.3468</v>
       </c>
       <c r="U38" t="n">
-        <v>3.5918</v>
+        <v>0.4376</v>
       </c>
     </row>
     <row r="39">
@@ -3317,7 +3213,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3336,25 +3232,25 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>448040650000000</v>
+        <v>448000552000000</v>
       </c>
       <c r="G39" t="n">
-        <v>120133986000000</v>
+        <v>89024926000000</v>
       </c>
       <c r="H39" t="n">
-        <v>327906664000000</v>
+        <v>358975626000000</v>
       </c>
       <c r="I39" t="n">
-        <v>77203607000000</v>
+        <v>60005533000000</v>
       </c>
       <c r="J39" t="n">
-        <v>14097045000000</v>
+        <v>668547000000</v>
       </c>
       <c r="K39" t="n">
-        <v>63106562000000</v>
+        <v>59336986000000</v>
       </c>
       <c r="L39" t="n">
-        <v>11098805000000</v>
+        <v>1723571000000</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3362,28 +3258,28 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>21.2528</v>
+        <v>-22.2763</v>
       </c>
       <c r="O39" t="n">
-        <v>12.1774</v>
+        <v>-95.25749999999999</v>
       </c>
       <c r="P39" t="n">
-        <v>15.1987</v>
+        <v>-84.47069999999999</v>
       </c>
       <c r="Q39" t="n">
-        <v>18.2596</v>
+        <v>1.1141</v>
       </c>
       <c r="R39" t="n">
-        <v>14.376</v>
+        <v>2.8724</v>
       </c>
       <c r="S39" t="n">
-        <v>81.74039999999999</v>
+        <v>98.88590000000001</v>
       </c>
       <c r="T39" t="n">
-        <v>2.4772</v>
+        <v>0.3847</v>
       </c>
       <c r="U39" t="n">
-        <v>3.3847</v>
+        <v>0.4801</v>
       </c>
     </row>
     <row r="40">
@@ -3394,7 +3290,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3413,25 +3309,25 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>470278409000000</v>
+        <v>454466447000000</v>
       </c>
       <c r="G40" t="n">
-        <v>125371520000000</v>
+        <v>90573804000000</v>
       </c>
       <c r="H40" t="n">
-        <v>344906889000000</v>
+        <v>363892643000000</v>
       </c>
       <c r="I40" t="n">
-        <v>76781680000000</v>
+        <v>67404652000000</v>
       </c>
       <c r="J40" t="n">
-        <v>10852045000000</v>
+        <v>2433534000000</v>
       </c>
       <c r="K40" t="n">
-        <v>65929635000000</v>
+        <v>64971118000000</v>
       </c>
       <c r="L40" t="n">
-        <v>9389198000000</v>
+        <v>5844171000000</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3439,28 +3335,28 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.7882</v>
+        <v>-12.2126</v>
       </c>
       <c r="O40" t="n">
-        <v>-31.3923</v>
+        <v>-77.5753</v>
       </c>
       <c r="P40" t="n">
-        <v>-23.6236</v>
+        <v>-37.7564</v>
       </c>
       <c r="Q40" t="n">
-        <v>14.1336</v>
+        <v>3.6103</v>
       </c>
       <c r="R40" t="n">
-        <v>12.2284</v>
+        <v>8.670299999999999</v>
       </c>
       <c r="S40" t="n">
-        <v>85.8664</v>
+        <v>96.3897</v>
       </c>
       <c r="T40" t="n">
-        <v>1.9965</v>
+        <v>1.2859</v>
       </c>
       <c r="U40" t="n">
-        <v>2.7222</v>
+        <v>1.606</v>
       </c>
     </row>
     <row r="41">
@@ -3471,7 +3367,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3490,25 +3386,25 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>448424507000000</v>
+        <v>455905980000000</v>
       </c>
       <c r="G41" t="n">
-        <v>93674903000000</v>
+        <v>92228115000000</v>
       </c>
       <c r="H41" t="n">
-        <v>354749604000000</v>
+        <v>363677865000000</v>
       </c>
       <c r="I41" t="n">
-        <v>302231360000000</v>
+        <v>258935494000000</v>
       </c>
       <c r="J41" t="n">
-        <v>43376630000000</v>
+        <v>6566976000000</v>
       </c>
       <c r="K41" t="n">
-        <v>258854730000000</v>
+        <v>252368518000000</v>
       </c>
       <c r="L41" t="n">
-        <v>55654077000000</v>
+        <v>15487100000000</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3516,28 +3412,28 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>8.0923</v>
+        <v>-14.3254</v>
       </c>
       <c r="O41" t="n">
-        <v>-15.9919</v>
+        <v>-84.86060000000001</v>
       </c>
       <c r="P41" t="n">
-        <v>39.4579</v>
+        <v>-72.1726</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.3521</v>
+        <v>2.5361</v>
       </c>
       <c r="R41" t="n">
-        <v>18.4144</v>
+        <v>5.9811</v>
       </c>
       <c r="S41" t="n">
-        <v>85.64790000000001</v>
+        <v>97.4639</v>
       </c>
       <c r="T41" t="n">
-        <v>12.411</v>
+        <v>3.397</v>
       </c>
       <c r="U41" t="n">
-        <v>15.6883</v>
+        <v>4.2585</v>
       </c>
     </row>
     <row r="42">
@@ -3548,7 +3444,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3567,25 +3463,25 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>454091777000000</v>
+        <v>470899812000000</v>
       </c>
       <c r="G42" t="n">
-        <v>94292361000000</v>
+        <v>98983688000000</v>
       </c>
       <c r="H42" t="n">
-        <v>359799416000000</v>
+        <v>371916124000000</v>
       </c>
       <c r="I42" t="n">
-        <v>63745371000000</v>
+        <v>71915601000000</v>
       </c>
       <c r="J42" t="n">
-        <v>640178000000</v>
+        <v>6606009000000</v>
       </c>
       <c r="K42" t="n">
-        <v>63105193000000</v>
+        <v>65309592000000</v>
       </c>
       <c r="L42" t="n">
-        <v>1574600000000</v>
+        <v>6754708000000</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3593,28 +3489,28 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>-18.0456</v>
+        <v>12.817</v>
       </c>
       <c r="O42" t="n">
-        <v>-95.4666</v>
+        <v>931.9019</v>
       </c>
       <c r="P42" t="n">
-        <v>-86.0958</v>
+        <v>328.9793</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.0043</v>
+        <v>9.1858</v>
       </c>
       <c r="R42" t="n">
-        <v>2.4701</v>
+        <v>9.3925</v>
       </c>
       <c r="S42" t="n">
-        <v>98.9957</v>
+        <v>90.8142</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3468</v>
+        <v>1.4344</v>
       </c>
       <c r="U42" t="n">
-        <v>0.4376</v>
+        <v>1.8162</v>
       </c>
     </row>
     <row r="43">
@@ -3625,7 +3521,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3644,25 +3540,25 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>448000552000000</v>
+        <v>485757698000000</v>
       </c>
       <c r="G43" t="n">
-        <v>89024926000000</v>
+        <v>102231027000000</v>
       </c>
       <c r="H43" t="n">
-        <v>358975626000000</v>
+        <v>383526671000000</v>
       </c>
       <c r="I43" t="n">
-        <v>60005533000000</v>
+        <v>74068302000000</v>
       </c>
       <c r="J43" t="n">
-        <v>668547000000</v>
+        <v>10443878000000</v>
       </c>
       <c r="K43" t="n">
-        <v>59336986000000</v>
+        <v>63624424000000</v>
       </c>
       <c r="L43" t="n">
-        <v>1723571000000</v>
+        <v>9841345000000</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3670,28 +3566,28 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>-22.2763</v>
+        <v>23.4358</v>
       </c>
       <c r="O43" t="n">
-        <v>-95.25749999999999</v>
+        <v>1462.1756</v>
       </c>
       <c r="P43" t="n">
-        <v>-84.47069999999999</v>
+        <v>470.9858</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.1141</v>
+        <v>14.1003</v>
       </c>
       <c r="R43" t="n">
-        <v>2.8724</v>
+        <v>13.2869</v>
       </c>
       <c r="S43" t="n">
-        <v>98.88590000000001</v>
+        <v>85.8997</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3847</v>
+        <v>2.026</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4801</v>
+        <v>2.566</v>
       </c>
     </row>
     <row r="44">
@@ -3702,7 +3598,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3721,25 +3617,25 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>454466447000000</v>
+        <v>491307317000000</v>
       </c>
       <c r="G44" t="n">
-        <v>90573804000000</v>
+        <v>105025954000000</v>
       </c>
       <c r="H44" t="n">
-        <v>363892643000000</v>
+        <v>386281363000000</v>
       </c>
       <c r="I44" t="n">
-        <v>67404652000000</v>
+        <v>79098731000000</v>
       </c>
       <c r="J44" t="n">
-        <v>2433534000000</v>
+        <v>9183371000000</v>
       </c>
       <c r="K44" t="n">
-        <v>64971118000000</v>
+        <v>69915360000000</v>
       </c>
       <c r="L44" t="n">
-        <v>5844171000000</v>
+        <v>10100904000000</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3747,28 +3643,28 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>-12.2126</v>
+        <v>17.3491</v>
       </c>
       <c r="O44" t="n">
-        <v>-77.5753</v>
+        <v>277.3677</v>
       </c>
       <c r="P44" t="n">
-        <v>-37.7564</v>
+        <v>72.8372</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.6103</v>
+        <v>11.61</v>
       </c>
       <c r="R44" t="n">
-        <v>8.670299999999999</v>
+        <v>12.77</v>
       </c>
       <c r="S44" t="n">
-        <v>96.3897</v>
+        <v>88.39</v>
       </c>
       <c r="T44" t="n">
-        <v>1.2859</v>
+        <v>2.0559</v>
       </c>
       <c r="U44" t="n">
-        <v>1.606</v>
+        <v>2.6149</v>
       </c>
     </row>
     <row r="45">
@@ -3779,7 +3675,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3798,25 +3694,25 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>455905980000000</v>
+        <v>514531948000000</v>
       </c>
       <c r="G45" t="n">
-        <v>92228115000000</v>
+        <v>112339878000000</v>
       </c>
       <c r="H45" t="n">
-        <v>363677865000000</v>
+        <v>402192070000000</v>
       </c>
       <c r="I45" t="n">
-        <v>258935494000000</v>
+        <v>300870903000000</v>
       </c>
       <c r="J45" t="n">
-        <v>6566976000000</v>
+        <v>32725961000000</v>
       </c>
       <c r="K45" t="n">
-        <v>252368518000000</v>
+        <v>268144942000000</v>
       </c>
       <c r="L45" t="n">
-        <v>15487100000000</v>
+        <v>34451351000000</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3824,28 +3720,28 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>-14.3254</v>
+        <v>16.1953</v>
       </c>
       <c r="O45" t="n">
-        <v>-84.86060000000001</v>
+        <v>398.3414</v>
       </c>
       <c r="P45" t="n">
-        <v>-72.1726</v>
+        <v>122.4519</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.5361</v>
+        <v>10.8771</v>
       </c>
       <c r="R45" t="n">
-        <v>5.9811</v>
+        <v>11.4505</v>
       </c>
       <c r="S45" t="n">
-        <v>97.4639</v>
+        <v>89.1229</v>
       </c>
       <c r="T45" t="n">
-        <v>3.397</v>
+        <v>6.6957</v>
       </c>
       <c r="U45" t="n">
-        <v>4.2585</v>
+        <v>8.565899999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3856,7 +3752,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3866,7 +3762,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>실적</t>
+          <t>예측</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3874,56 +3770,22 @@
           <t>264</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>470899812000000</v>
-      </c>
-      <c r="G46" t="n">
-        <v>98983688000000</v>
-      </c>
-      <c r="H46" t="n">
-        <v>371916124000000</v>
-      </c>
-      <c r="I46" t="n">
-        <v>71915601000000</v>
-      </c>
-      <c r="J46" t="n">
-        <v>6606009000000</v>
-      </c>
-      <c r="K46" t="n">
-        <v>65309592000000</v>
-      </c>
-      <c r="L46" t="n">
-        <v>6754708000000</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>12.817</v>
-      </c>
-      <c r="O46" t="n">
-        <v>931.9019</v>
-      </c>
-      <c r="P46" t="n">
-        <v>328.9793</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>9.1858</v>
-      </c>
-      <c r="R46" t="n">
-        <v>9.3925</v>
-      </c>
-      <c r="S46" t="n">
-        <v>90.8142</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.4344</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.8162</v>
-      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3933,7 +3795,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3943,7 +3805,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>실적</t>
+          <t>예측</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3951,56 +3813,22 @@
           <t>264</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>485757698000000</v>
-      </c>
-      <c r="G47" t="n">
-        <v>102231027000000</v>
-      </c>
-      <c r="H47" t="n">
-        <v>383526671000000</v>
-      </c>
-      <c r="I47" t="n">
-        <v>74068302000000</v>
-      </c>
-      <c r="J47" t="n">
-        <v>10443878000000</v>
-      </c>
-      <c r="K47" t="n">
-        <v>63624424000000</v>
-      </c>
-      <c r="L47" t="n">
-        <v>9841345000000</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
-        <v>23.4358</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1462.1756</v>
-      </c>
-      <c r="P47" t="n">
-        <v>470.9858</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>14.1003</v>
-      </c>
-      <c r="R47" t="n">
-        <v>13.2869</v>
-      </c>
-      <c r="S47" t="n">
-        <v>85.8997</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2.026</v>
-      </c>
-      <c r="U47" t="n">
-        <v>2.566</v>
-      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4010,7 +3838,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4020,7 +3848,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>실적</t>
+          <t>예측</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4028,56 +3856,22 @@
           <t>264</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>491307317000000</v>
-      </c>
-      <c r="G48" t="n">
-        <v>105025954000000</v>
-      </c>
-      <c r="H48" t="n">
-        <v>386281363000000</v>
-      </c>
-      <c r="I48" t="n">
-        <v>79098731000000</v>
-      </c>
-      <c r="J48" t="n">
-        <v>9183371000000</v>
-      </c>
-      <c r="K48" t="n">
-        <v>69915360000000</v>
-      </c>
-      <c r="L48" t="n">
-        <v>10100904000000</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>17.3491</v>
-      </c>
-      <c r="O48" t="n">
-        <v>277.3677</v>
-      </c>
-      <c r="P48" t="n">
-        <v>72.8372</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="R48" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="S48" t="n">
-        <v>88.39</v>
-      </c>
-      <c r="T48" t="n">
-        <v>2.0559</v>
-      </c>
-      <c r="U48" t="n">
-        <v>2.6149</v>
-      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4087,7 +3881,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4097,7 +3891,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>실적</t>
+          <t>예측</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4105,640 +3899,22 @@
           <t>264</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>514531948000000</v>
-      </c>
-      <c r="G49" t="n">
-        <v>112339878000000</v>
-      </c>
-      <c r="H49" t="n">
-        <v>402192070000000</v>
-      </c>
-      <c r="I49" t="n">
-        <v>300870903000000</v>
-      </c>
-      <c r="J49" t="n">
-        <v>32725961000000</v>
-      </c>
-      <c r="K49" t="n">
-        <v>268144942000000</v>
-      </c>
-      <c r="L49" t="n">
-        <v>34451351000000</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>16.1953</v>
-      </c>
-      <c r="O49" t="n">
-        <v>398.3414</v>
-      </c>
-      <c r="P49" t="n">
-        <v>122.4519</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>10.8771</v>
-      </c>
-      <c r="R49" t="n">
-        <v>11.4505</v>
-      </c>
-      <c r="S49" t="n">
-        <v>89.1229</v>
-      </c>
-      <c r="T49" t="n">
-        <v>6.6957</v>
-      </c>
-      <c r="U49" t="n">
-        <v>8.565899999999999</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>1분기</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>예측</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="n">
-        <v>506841757432095.2</v>
-      </c>
-      <c r="G50" t="n">
-        <v>103128614736212</v>
-      </c>
-      <c r="H50" t="n">
-        <v>406271044666363.4</v>
-      </c>
-      <c r="I50" t="n">
-        <v>77397974833852.22</v>
-      </c>
-      <c r="J50" t="n">
-        <v>18592658865547.71</v>
-      </c>
-      <c r="K50" t="n">
-        <v>58805315968304.52</v>
-      </c>
-      <c r="L50" t="n">
-        <v>11003611309174.94</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>7.6233</v>
-      </c>
-      <c r="O50" t="n">
-        <v>181.4507</v>
-      </c>
-      <c r="P50" t="n">
-        <v>62.9028</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>24.0222</v>
-      </c>
-      <c r="R50" t="n">
-        <v>14.2169</v>
-      </c>
-      <c r="S50" t="n">
-        <v>75.9778</v>
-      </c>
-      <c r="T50" t="n">
-        <v>2.171</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2.7084</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2분기</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>예측</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="n">
-        <v>522833687902362.1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>106511935558213.3</v>
-      </c>
-      <c r="H51" t="n">
-        <v>418954089994180.2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>79714783641760.38</v>
-      </c>
-      <c r="J51" t="n">
-        <v>29394368201344.96</v>
-      </c>
-      <c r="K51" t="n">
-        <v>50320415440415.41</v>
-      </c>
-      <c r="L51" t="n">
-        <v>16031830708224.88</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>7.6233</v>
-      </c>
-      <c r="O51" t="n">
-        <v>181.4507</v>
-      </c>
-      <c r="P51" t="n">
-        <v>62.9028</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>36.8744</v>
-      </c>
-      <c r="R51" t="n">
-        <v>20.1115</v>
-      </c>
-      <c r="S51" t="n">
-        <v>63.1256</v>
-      </c>
-      <c r="T51" t="n">
-        <v>3.0663</v>
-      </c>
-      <c r="U51" t="n">
-        <v>3.8266</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>3분기</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>예측</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="n">
-        <v>528806887668767.1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>109423899697181.7</v>
-      </c>
-      <c r="H52" t="n">
-        <v>421963240510531.8</v>
-      </c>
-      <c r="I52" t="n">
-        <v>85128699561693.81</v>
-      </c>
-      <c r="J52" t="n">
-        <v>25846662370390.91</v>
-      </c>
-      <c r="K52" t="n">
-        <v>59282037191302.9</v>
-      </c>
-      <c r="L52" t="n">
-        <v>16454659696213.43</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>7.6233</v>
-      </c>
-      <c r="O52" t="n">
-        <v>181.4507</v>
-      </c>
-      <c r="P52" t="n">
-        <v>62.9028</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>30.3619</v>
-      </c>
-      <c r="R52" t="n">
-        <v>19.3292</v>
-      </c>
-      <c r="S52" t="n">
-        <v>69.63809999999999</v>
-      </c>
-      <c r="T52" t="n">
-        <v>3.1117</v>
-      </c>
-      <c r="U52" t="n">
-        <v>3.8995</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>4분기</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>예측</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="n">
-        <v>553804164141988.3</v>
-      </c>
-      <c r="G53" t="n">
-        <v>117044093141640.3</v>
-      </c>
-      <c r="H53" t="n">
-        <v>439343663506848.1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>323807327684467.2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>92107447767664.03</v>
-      </c>
-      <c r="K53" t="n">
-        <v>231699879916803.2</v>
-      </c>
-      <c r="L53" t="n">
-        <v>56122229929103.59</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>7.6233</v>
-      </c>
-      <c r="O53" t="n">
-        <v>181.4507</v>
-      </c>
-      <c r="P53" t="n">
-        <v>62.9028</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>28.4451</v>
-      </c>
-      <c r="R53" t="n">
-        <v>17.332</v>
-      </c>
-      <c r="S53" t="n">
-        <v>71.5549</v>
-      </c>
-      <c r="T53" t="n">
-        <v>10.1339</v>
-      </c>
-      <c r="U53" t="n">
-        <v>12.7741</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>1분기</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>예측</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="n">
-        <v>545527011331350.6</v>
-      </c>
-      <c r="G54" t="n">
-        <v>107447109643056</v>
-      </c>
-      <c r="H54" t="n">
-        <v>443799424340898.6</v>
-      </c>
-      <c r="I54" t="n">
-        <v>83298288898143.56</v>
-      </c>
-      <c r="J54" t="n">
-        <v>52329169350303.6</v>
-      </c>
-      <c r="K54" t="n">
-        <v>30969119547839.96</v>
-      </c>
-      <c r="L54" t="n">
-        <v>17925195558920.2</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>7.6233</v>
-      </c>
-      <c r="O54" t="n">
-        <v>181.4507</v>
-      </c>
-      <c r="P54" t="n">
-        <v>62.9028</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>62.8214</v>
-      </c>
-      <c r="R54" t="n">
-        <v>21.5193</v>
-      </c>
-      <c r="S54" t="n">
-        <v>37.1786</v>
-      </c>
-      <c r="T54" t="n">
-        <v>3.2858</v>
-      </c>
-      <c r="U54" t="n">
-        <v>4.039</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2분기</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>예측</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
-        <v>562739543461819.8</v>
-      </c>
-      <c r="G55" t="n">
-        <v>110972106504975</v>
-      </c>
-      <c r="H55" t="n">
-        <v>457654037632370.1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>85791716017098.22</v>
-      </c>
-      <c r="J55" t="n">
-        <v>82730656366939.56</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3061059650158.656</v>
-      </c>
-      <c r="L55" t="n">
-        <v>26116307868201.18</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>7.6233</v>
-      </c>
-      <c r="O55" t="n">
-        <v>181.4507</v>
-      </c>
-      <c r="P55" t="n">
-        <v>62.9028</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>96.432</v>
-      </c>
-      <c r="R55" t="n">
-        <v>30.4415</v>
-      </c>
-      <c r="S55" t="n">
-        <v>3.568</v>
-      </c>
-      <c r="T55" t="n">
-        <v>4.6409</v>
-      </c>
-      <c r="U55" t="n">
-        <v>5.7066</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>3분기</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>예측</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="n">
-        <v>569168654261927.1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>114006008695135.2</v>
-      </c>
-      <c r="H56" t="n">
-        <v>460941151701768.4</v>
-      </c>
-      <c r="I56" t="n">
-        <v>91618353385026.22</v>
-      </c>
-      <c r="J56" t="n">
-        <v>72745613314433.41</v>
-      </c>
-      <c r="K56" t="n">
-        <v>18872740070592.81</v>
-      </c>
-      <c r="L56" t="n">
-        <v>26805108306958.53</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
-        <v>7.6233</v>
-      </c>
-      <c r="O56" t="n">
-        <v>181.4507</v>
-      </c>
-      <c r="P56" t="n">
-        <v>62.9028</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>79.4007</v>
-      </c>
-      <c r="R56" t="n">
-        <v>29.2574</v>
-      </c>
-      <c r="S56" t="n">
-        <v>20.5993</v>
-      </c>
-      <c r="T56" t="n">
-        <v>4.7095</v>
-      </c>
-      <c r="U56" t="n">
-        <v>5.8153</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>삼성전자</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>4분기</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>예측</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="n">
-        <v>596073875321355.9</v>
-      </c>
-      <c r="G57" t="n">
-        <v>121945296570012</v>
-      </c>
-      <c r="H57" t="n">
-        <v>479927052424525.8</v>
-      </c>
-      <c r="I57" t="n">
-        <v>348492274981326.1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>259237060579304.5</v>
-      </c>
-      <c r="K57" t="n">
-        <v>89255214402021.59</v>
-      </c>
-      <c r="L57" t="n">
-        <v>91424707617857.17</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>흑자</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>7.6233</v>
-      </c>
-      <c r="O57" t="n">
-        <v>181.4507</v>
-      </c>
-      <c r="P57" t="n">
-        <v>62.9028</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>74.3882</v>
-      </c>
-      <c r="R57" t="n">
-        <v>26.2344</v>
-      </c>
-      <c r="S57" t="n">
-        <v>25.6118</v>
-      </c>
-      <c r="T57" t="n">
-        <v>15.3378</v>
-      </c>
-      <c r="U57" t="n">
-        <v>19.0497</v>
-      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
